--- a/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,45; 42,67</t>
+          <t>27,49; 43,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,09; 52,91</t>
+          <t>37,33; 52,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,75; 45,29</t>
+          <t>34,71; 45,47</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,29; 47,48</t>
+          <t>34,95; 47,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,27; 41,81</t>
+          <t>30,86; 41,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,73; 42,48</t>
+          <t>34,65; 42,16</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,41; 42,98</t>
+          <t>34,42; 43,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,53; 41,96</t>
+          <t>32,43; 41,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>34,54; 41,15</t>
+          <t>34,81; 40,9</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,14; 40,61</t>
+          <t>27,73; 40,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,12; 45,68</t>
+          <t>39,16; 45,66</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,13; 42,31</t>
+          <t>34,32; 42,09</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34,6; 42,45</t>
+          <t>34,58; 42,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,86; 45,23</t>
+          <t>38,91; 45,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>37,64; 42,48</t>
+          <t>37,66; 42,45</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,48; 44,87</t>
+          <t>38,78; 45,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,35; 40,59</t>
+          <t>24,75; 41,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>29,75; 41,52</t>
+          <t>29,08; 41,4</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>36,4; 40,77</t>
+          <t>36,12; 40,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,75; 41,35</t>
+          <t>35,14; 41,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>37,07; 40,49</t>
+          <t>36,82; 40,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,49; 43,02</t>
+          <t>27,45; 42,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>37,33; 52,61</t>
+          <t>38,09; 52,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,71; 45,47</t>
+          <t>34,75; 45,29</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,95; 47,23</t>
+          <t>35,29; 47,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,86; 41,31</t>
+          <t>31,27; 41,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>34,65; 42,16</t>
+          <t>34,73; 42,48</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,42; 43,47</t>
+          <t>34,41; 42,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,43; 41,7</t>
+          <t>31,53; 41,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>34,81; 40,9</t>
+          <t>34,54; 41,15</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,73; 40,28</t>
+          <t>27,14; 40,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,16; 45,66</t>
+          <t>39,12; 45,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,32; 42,09</t>
+          <t>35,13; 42,31</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34,58; 42,54</t>
+          <t>34,6; 42,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,91; 45,01</t>
+          <t>38,86; 45,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>37,66; 42,45</t>
+          <t>37,64; 42,48</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,78; 45,13</t>
+          <t>38,48; 44,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,75; 41,15</t>
+          <t>25,35; 40,59</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>29,08; 41,4</t>
+          <t>29,75; 41,52</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>36,12; 40,48</t>
+          <t>36,4; 40,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,14; 41,3</t>
+          <t>35,75; 41,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>36,82; 40,42</t>
+          <t>37,07; 40,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,83 +542,65 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -639,14 +618,11 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>45,58%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>40,09%</t>
+          <t>10,01%</t>
         </is>
       </c>
     </row>
@@ -724,69 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,66; 6,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>12,39; 19,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>6,26; 18,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,45; 42,67</t>
+          <t>2,8; 6,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>10,98; 17,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>4,14; 14,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>3,08; 5,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>38,09; 52,91</t>
+          <t>12,72; 17,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,22</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>34,75; 45,29</t>
+          <t>6,39; 14,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,16%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,6%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>38,7%</t>
+          <t>18,47%</t>
         </is>
       </c>
     </row>
@@ -864,69 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>3,68; 7,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>13,12; 19,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>8,77; 17,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,29; 47,48</t>
+          <t>1,83; 4,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>14,0; 19,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>10,48; 51,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>3,2; 5,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,27; 41,81</t>
+          <t>14,52; 18,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,17</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>34,73; 42,48</t>
+          <t>10,88; 39,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37,78%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>38,2%</t>
+          <t>11,09%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>2,78; 6,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>10,91; 16,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>9,87; 15,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34,41; 42,98</t>
+          <t>2,77; 6,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>10,31; 15,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,95; 11,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>3,14; 5,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,53; 41,96</t>
+          <t>11,17; 14,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>34,54; 41,15</t>
+          <t>8,72; 12,9</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,81%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>39,2%</t>
+          <t>10,06%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,54; 6,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>13,23; 19,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>3,4; 12,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,14; 40,61</t>
+          <t>2,91; 6,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>10,7; 16,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>10,18; 14,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,11; 5,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>39,12; 45,68</t>
+          <t>12,56; 16,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,18</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>35,13; 42,31</t>
+          <t>6,14; 12,52</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,63%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>38,39%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>42,01%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>40,2%</t>
+          <t>10,45%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1125,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>3,0; 7,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>13,2; 20,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>7,59; 12,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>34,6; 42,45</t>
+          <t>2,78; 7,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>12,44; 19,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>9,26; 13,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>3,44; 6,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>38,86; 45,23</t>
+          <t>13,56; 18,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,24</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,22</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>37,64; 42,48</t>
+          <t>8,97; 11,98</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>15,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>38,2%</t>
+          <t>8,12%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>1,23; 4,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>12,56; 20,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>7,27; 12,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,48; 44,87</t>
+          <t>2,81; 7,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>11,63; 18,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>2,54; 11,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,41; 5,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>25,35; 40,59</t>
+          <t>12,89; 18,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,16</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>29,75; 41,52</t>
+          <t>3,93; 10,85</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,56%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>39,37%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>38,99%</t>
+          <t>11,25%</t>
         </is>
       </c>
     </row>
@@ -1564,84 +1345,180 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>0,92; 5,53</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>12,79; 21,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>7,86; 14,3</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>36,4; 40,77</t>
+          <t>4,28; 9,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>11,39; 19,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>9,29; 14,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,29; 6,93</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,75; 41,35</t>
+          <t>12,96; 18,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>37,07; 40,49</t>
+          <t>9,5; 13,25</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>15,72%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>10,45%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14,52%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>11,96%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>15,11%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>11,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 4,89</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>14,48; 17,02</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8,37; 12,04</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3,83; 5,31</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>13,33; 15,82</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9,72; 18,31</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3,86; 4,85</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>14,35; 15,96</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>9,74; 14,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
+++ b/data/trans_dic/Viv_Temp_insuf-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,66; 6,42</t>
+          <t>2,5; 6,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,39; 19,7</t>
+          <t>12,45; 20,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,26; 18,81</t>
+          <t>6,15; 18,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,96</t>
+          <t>2,92; 7,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,98; 17,85</t>
+          <t>10,67; 18,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 14,73</t>
+          <t>4,14; 14,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 5,9</t>
+          <t>3,11; 5,83</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,72; 17,73</t>
+          <t>12,5; 17,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,39; 14,79</t>
+          <t>6,6; 14,67</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 7,75</t>
+          <t>3,75; 7,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,12; 19,92</t>
+          <t>13,6; 19,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,77; 17,27</t>
+          <t>8,87; 17,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,65</t>
+          <t>1,88; 4,53</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,0; 19,93</t>
+          <t>14,09; 20,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,48; 51,11</t>
+          <t>10,21; 53,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 5,5</t>
+          <t>3,16; 5,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,52; 18,97</t>
+          <t>14,57; 19,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 39,49</t>
+          <t>11,14; 37,75</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 6,28</t>
+          <t>2,77; 6,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,91; 16,25</t>
+          <t>10,78; 16,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,87; 15,82</t>
+          <t>10,03; 15,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,77; 6,11</t>
+          <t>2,69; 5,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,31; 15,13</t>
+          <t>10,0; 15,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,95; 11,9</t>
+          <t>6,99; 12,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 5,37</t>
+          <t>3,09; 5,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,17; 14,86</t>
+          <t>11,11; 14,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,72; 12,9</t>
+          <t>9,15; 13,15</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,05</t>
+          <t>2,38; 5,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,23; 19,13</t>
+          <t>12,7; 19,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 12,2</t>
+          <t>2,85; 12,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,91; 6,53</t>
+          <t>2,84; 6,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 16,04</t>
+          <t>10,74; 16,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,18; 14,8</t>
+          <t>10,15; 14,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 5,55</t>
+          <t>3,0; 5,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,56; 16,7</t>
+          <t>12,58; 16,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,14; 12,52</t>
+          <t>5,63; 12,52</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,0; 7,25</t>
+          <t>2,88; 6,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,2; 20,49</t>
+          <t>13,45; 20,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,59; 12,35</t>
+          <t>7,58; 12,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 7,07</t>
+          <t>3,02; 7,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,44; 19,07</t>
+          <t>12,56; 19,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,26; 13,26</t>
+          <t>9,15; 13,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,44; 6,52</t>
+          <t>3,41; 6,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,56; 18,66</t>
+          <t>13,71; 18,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,97; 11,98</t>
+          <t>8,85; 12,13</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,91</t>
+          <t>1,01; 4,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,56; 20,54</t>
+          <t>12,7; 20,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,27; 12,51</t>
+          <t>7,04; 12,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,06</t>
+          <t>3,01; 7,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>11,63; 18,7</t>
+          <t>11,14; 18,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,54; 11,51</t>
+          <t>2,87; 11,63</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 5,42</t>
+          <t>2,53; 5,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,89; 18,26</t>
+          <t>12,98; 18,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,93; 10,85</t>
+          <t>4,31; 10,97</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,53</t>
+          <t>1,05; 5,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,79; 21,2</t>
+          <t>12,76; 21,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,86; 14,3</t>
+          <t>7,82; 14,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,76</t>
+          <t>4,5; 9,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,39; 19,36</t>
+          <t>11,45; 19,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,29; 14,09</t>
+          <t>9,35; 14,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,29; 6,93</t>
+          <t>3,63; 7,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,96; 18,78</t>
+          <t>13,19; 19,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,5; 13,25</t>
+          <t>9,38; 13,17</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,42; 4,89</t>
+          <t>3,5; 4,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,48; 17,02</t>
+          <t>14,4; 17,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,37; 12,04</t>
+          <t>8,15; 11,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,31</t>
+          <t>3,81; 5,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,33; 15,82</t>
+          <t>13,35; 15,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,72; 18,31</t>
+          <t>9,7; 17,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,86; 4,85</t>
+          <t>3,88; 4,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>14,35; 15,96</t>
+          <t>14,18; 15,97</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,74; 14,0</t>
+          <t>9,83; 14,88</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con temperatura insuficiente</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18498</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>66337</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>45973</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>19778</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>55936</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>25421</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>38275</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>122273</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>71394</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11333; 28500</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>52213; 84872</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>24602; 73775</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12580; 30741</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>42222; 71565</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12979; 46711</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>27473; 51551</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>101871; 144294</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47061; 104616</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>36333</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>97375</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>53846</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18543</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>95094</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>118963</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>54876</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>192469</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>172808</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>25781; 52637</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>80311; 116883</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>37557; 74065</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11473; 27643</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>79429; 112886</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>52274; 272118</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>40958; 71286</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>168099; 220700</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>104211; 353210</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28468</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>89371</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>68115</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>29618</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>82969</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>57068</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>58086</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>172340</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>125183</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>18914; 41283</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>72139; 109924</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>53808; 85518</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19149; 41865</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>66164; 100037</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>41368; 71555</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>43047; 73665</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>147862; 198732</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>103199; 148346</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>23816</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>102871</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>72234</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27483</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>85684</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>88810</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>51299</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>188555</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>161044</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>14621; 35346</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>82042; 123211</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>25327; 110377</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>17491; 39924</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>69685; 104579</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>72389; 104024</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>36882; 67058</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>162891; 219370</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>90152; 200400</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>20687</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>79491</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>55352</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>21050</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>77780</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>60557</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>41737</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>157271</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>115909</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12371; 29870</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>64263; 99188</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>42556; 69731</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>13524; 31624</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>62425; 96471</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>50109; 72204</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>29918; 55296</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>133617; 180546</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>98181; 134542</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>8057</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>54558</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>35525</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>16813</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>56341</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>43734</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>24870</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>110900</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>79260</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3126; 14322</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>42475; 68786</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>25923; 45583</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>10662; 25638</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>42077; 69948</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>17463; 70728</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>16780; 35205</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>92408; 129345</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>42104; 107087</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>6258</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>43568</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>30426</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>26290</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>60989</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>49273</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>32547</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>104557</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>79699</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2627; 13782</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>32800; 55256</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>22113; 40525</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>17509; 37310</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>45808; 78405</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>39803; 59617</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>23191; 45906</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>86683; 126131</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>66467; 93327</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>981</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>142116</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>533571</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>361472</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>159575</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>514794</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>443825</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>301691</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1048365</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>805297</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>120094; 167483</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>488903; 580562</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>281962; 411882</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>135657; 186311</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>473334; 561205</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>360218; 665407</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>270685; 341272</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>984256; 1108322</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>705061; 1067406</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>